--- a/api_docoment/endpoints.xlsx
+++ b/api_docoment/endpoints.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhqua\OneDrive\Desktop\cap2\api_docoment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CA8094-801F-46C7-91F6-E8716C4EAF06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BD1D1D-7687-4A69-B358-96B8D9214E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34639DDB-40CB-4B69-9EA6-28FE1698526B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>Anthentication</t>
   </si>
@@ -63,28 +63,55 @@
     <t>send otp</t>
   </si>
   <si>
-    <t>auth/api/otp/send_otp</t>
-  </si>
-  <si>
     <t>au03</t>
   </si>
   <si>
     <t>verify otp</t>
   </si>
   <si>
-    <t>auth/api/otp/verify_otp</t>
-  </si>
-  <si>
-    <t>auth/api/check_existed_phone</t>
-  </si>
-  <si>
     <t>au04</t>
   </si>
   <si>
     <t>change password</t>
   </si>
   <si>
-    <t>user/base_users</t>
+    <t>create a new patient</t>
+  </si>
+  <si>
+    <t>user/patients</t>
+  </si>
+  <si>
+    <t>auth/otp/verify-otp</t>
+  </si>
+  <si>
+    <t>auth/otp/send-otp</t>
+  </si>
+  <si>
+    <t>auth/check-existed-phone</t>
+  </si>
+  <si>
+    <t>get token</t>
+  </si>
+  <si>
+    <t>patch</t>
+  </si>
+  <si>
+    <t>user/base-users/change-password/:phone_number</t>
+  </si>
+  <si>
+    <t>Account management</t>
+  </si>
+  <si>
+    <t>base user</t>
+  </si>
+  <si>
+    <t>patient</t>
+  </si>
+  <si>
+    <t>baus01</t>
+  </si>
+  <si>
+    <t>Pa1</t>
   </si>
 </sst>
 </file>
@@ -442,27 +469,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462F7E1B-717B-4662-9EB4-B3BA1D28FDCC}">
-  <dimension ref="C5:I11"/>
+  <dimension ref="B5:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="123" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.59765625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.3984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.19921875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.296875" customWidth="1"/>
     <col min="9" max="9" width="27.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>7</v>
       </c>
@@ -482,7 +510,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>3</v>
       </c>
@@ -490,13 +518,13 @@
         <v>8</v>
       </c>
       <c r="G8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>10</v>
       </c>
@@ -504,37 +532,74 @@
         <v>11</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="F10" t="s">
-        <v>14</v>
-      </c>
       <c r="G10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" t="s">
         <v>17</v>
       </c>
-      <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
+      <c r="H20" t="s">
         <v>9</v>
       </c>
     </row>

--- a/api_docoment/endpoints.xlsx
+++ b/api_docoment/endpoints.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nhqua\OneDrive\Desktop\cap2\api_docoment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BD1D1D-7687-4A69-B358-96B8D9214E3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF734BD-DB86-47BA-9244-69D814856AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{34639DDB-40CB-4B69-9EA6-28FE1698526B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="authentication" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="32">
   <si>
     <t>Anthentication</t>
   </si>
@@ -112,6 +113,15 @@
   </si>
   <si>
     <t>Pa1</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>input</t>
   </si>
 </sst>
 </file>
@@ -471,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{462F7E1B-717B-4662-9EB4-B3BA1D28FDCC}">
   <dimension ref="B5:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B3" zoomScale="123" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="123" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -608,4 +618,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57078B55-3119-4A5D-A129-BD3728A828C8}">
+  <dimension ref="D4:G5"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="38.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="4:7" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>